--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_T45.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_T45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,25 +515,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8.987815262142332</v>
+        <v>2.174397541324862</v>
       </c>
       <c r="C3">
-        <v>-9.341190737857668</v>
+        <v>10.04419022232486</v>
       </c>
       <c r="D3">
-        <v>-1.201108737857667</v>
+        <v>-8.284815777675137</v>
       </c>
       <c r="E3">
-        <v>0.5872002621423329</v>
+        <v>-0.1447337776751375</v>
       </c>
       <c r="F3">
-        <v>-2.590918737857667</v>
+        <v>1.643575222324863</v>
       </c>
       <c r="G3">
-        <v>-2.886247737857667</v>
+        <v>-1.534543777675137</v>
       </c>
       <c r="H3">
-        <v>-0.371802737857667</v>
+        <v>-1.829872777675137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-8.470544361886736</v>
+        <v>8.987815262142332</v>
       </c>
       <c r="C4">
-        <v>-0.3304623618867365</v>
+        <v>-9.341190737857668</v>
       </c>
       <c r="D4">
-        <v>1.457846638113264</v>
+        <v>-1.201108737857667</v>
       </c>
       <c r="E4">
-        <v>-1.720272361886736</v>
+        <v>0.5872002621423329</v>
       </c>
       <c r="F4">
-        <v>-2.015601361886736</v>
+        <v>-2.590918737857667</v>
       </c>
       <c r="G4">
-        <v>0.4988436381132635</v>
+        <v>-2.886247737857667</v>
       </c>
       <c r="H4">
-        <v>-0.4308783618867365</v>
+        <v>-0.371802737857667</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,25 +567,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.34111357821662</v>
+        <v>-8.470544361886736</v>
       </c>
       <c r="C5">
-        <v>1.44719542178338</v>
+        <v>-0.3304623618867365</v>
       </c>
       <c r="D5">
-        <v>-1.73092357821662</v>
+        <v>1.457846638113264</v>
       </c>
       <c r="E5">
-        <v>-2.02625257821662</v>
+        <v>-1.720272361886736</v>
       </c>
       <c r="F5">
-        <v>0.48819242178338</v>
+        <v>-2.015601361886736</v>
       </c>
       <c r="G5">
-        <v>-0.44152957821662</v>
+        <v>0.4988436381132635</v>
       </c>
       <c r="H5">
-        <v>-0.20652157821662</v>
+        <v>-0.4308783618867365</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,25 +593,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.338580889567239</v>
+        <v>-0.34111357821662</v>
       </c>
       <c r="C6">
-        <v>-1.839538110432761</v>
+        <v>1.44719542178338</v>
       </c>
       <c r="D6">
-        <v>-2.134867110432761</v>
+        <v>-1.73092357821662</v>
       </c>
       <c r="E6">
-        <v>0.3795778895672392</v>
+        <v>-2.02625257821662</v>
       </c>
       <c r="F6">
-        <v>-0.5501441104327608</v>
+        <v>0.48819242178338</v>
       </c>
       <c r="G6">
-        <v>-0.3151361104327608</v>
+        <v>-0.44152957821662</v>
       </c>
       <c r="H6">
-        <v>-0.6222721104327609</v>
+        <v>-0.20652157821662</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,25 +619,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.631436389465022</v>
+        <v>1.338580889567239</v>
       </c>
       <c r="C7">
-        <v>-1.926765389465022</v>
+        <v>-1.839538110432761</v>
       </c>
       <c r="D7">
-        <v>0.5876796105349782</v>
+        <v>-2.134867110432761</v>
       </c>
       <c r="E7">
-        <v>-0.3420423894650218</v>
+        <v>0.3795778895672392</v>
       </c>
       <c r="F7">
-        <v>-0.1070343894650218</v>
+        <v>-0.5501441104327608</v>
       </c>
       <c r="G7">
-        <v>-0.4141703894650218</v>
+        <v>-0.3151361104327608</v>
       </c>
       <c r="H7">
-        <v>0.09650561053497819</v>
+        <v>-0.6222721104327609</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-1.810267219091221</v>
+        <v>-1.631436389465022</v>
       </c>
       <c r="C8">
-        <v>0.7041777809087787</v>
+        <v>-1.926765389465022</v>
       </c>
       <c r="D8">
-        <v>-0.2255442190912214</v>
+        <v>0.5876796105349782</v>
       </c>
       <c r="E8">
-        <v>0.009463780908778634</v>
+        <v>-0.3420423894650218</v>
       </c>
       <c r="F8">
-        <v>-0.2976722190912214</v>
+        <v>-0.1070343894650218</v>
       </c>
       <c r="G8">
-        <v>0.2130037809087786</v>
+        <v>-0.4141703894650218</v>
       </c>
       <c r="H8">
-        <v>-0.07436321909122137</v>
+        <v>0.09650561053497819</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -668,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7496711949059137</v>
+        <v>-1.810267219091221</v>
       </c>
       <c r="C9">
-        <v>-0.1800508050940863</v>
+        <v>0.7041777809087787</v>
       </c>
       <c r="D9">
-        <v>0.05495719490591373</v>
+        <v>-0.2255442190912214</v>
       </c>
       <c r="E9">
-        <v>-0.2521788050940862</v>
+        <v>0.009463780908778634</v>
       </c>
       <c r="F9">
-        <v>0.2584971949059137</v>
+        <v>-0.2976722190912214</v>
       </c>
       <c r="G9">
-        <v>-0.02886980509408627</v>
+        <v>0.2130037809087786</v>
       </c>
       <c r="H9">
-        <v>-0.0008708050940862688</v>
+        <v>-0.07436321909122137</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,25 +697,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1976049264540507</v>
+        <v>0.7496711949059137</v>
       </c>
       <c r="C10">
-        <v>0.03740307354594928</v>
+        <v>-0.1800508050940863</v>
       </c>
       <c r="D10">
-        <v>-0.2697329264540507</v>
+        <v>0.05495719490591373</v>
       </c>
       <c r="E10">
-        <v>0.2409430735459493</v>
+        <v>-0.2521788050940862</v>
       </c>
       <c r="F10">
-        <v>-0.04642392645405072</v>
+        <v>0.2584971949059137</v>
       </c>
       <c r="G10">
-        <v>-0.01842492645405072</v>
+        <v>-0.02886980509408627</v>
       </c>
       <c r="H10">
-        <v>0.07422307354594927</v>
+        <v>-0.0008708050940862688</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,25 +723,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1255103924969555</v>
+        <v>-0.1976049264540507</v>
       </c>
       <c r="C11">
-        <v>-0.1816256075030445</v>
+        <v>0.03740307354594928</v>
       </c>
       <c r="D11">
-        <v>0.3290503924969555</v>
+        <v>-0.2697329264540507</v>
       </c>
       <c r="E11">
-        <v>0.0416833924969555</v>
+        <v>0.2409430735459493</v>
       </c>
       <c r="F11">
-        <v>0.06968239249695551</v>
+        <v>-0.04642392645405072</v>
       </c>
       <c r="G11">
-        <v>0.1623303924969555</v>
+        <v>-0.01842492645405072</v>
       </c>
       <c r="H11">
-        <v>0.3753063924969555</v>
+        <v>0.07422307354594927</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -746,25 +749,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.003050974015260888</v>
+        <v>0.1255103924969555</v>
       </c>
       <c r="C12">
-        <v>0.5076250259847391</v>
+        <v>-0.1816256075030445</v>
       </c>
       <c r="D12">
-        <v>0.2202580259847391</v>
+        <v>0.3290503924969555</v>
       </c>
       <c r="E12">
-        <v>0.2482570259847391</v>
+        <v>0.0416833924969555</v>
       </c>
       <c r="F12">
-        <v>0.3409050259847391</v>
+        <v>0.06968239249695551</v>
       </c>
       <c r="G12">
-        <v>0.5538810259847391</v>
+        <v>0.1623303924969555</v>
       </c>
       <c r="H12">
-        <v>0.0532210259847391</v>
+        <v>0.3753063924969555</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -772,25 +775,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.419652253737389</v>
+        <v>-0.003050974015260888</v>
       </c>
       <c r="C13">
-        <v>1.132285253737389</v>
+        <v>0.5076250259847391</v>
       </c>
       <c r="D13">
-        <v>1.160284253737389</v>
+        <v>0.2202580259847391</v>
       </c>
       <c r="E13">
-        <v>1.252932253737389</v>
+        <v>0.2482570259847391</v>
       </c>
       <c r="F13">
-        <v>1.465908253737389</v>
+        <v>0.3409050259847391</v>
       </c>
       <c r="G13">
-        <v>0.9652482537373891</v>
+        <v>0.5538810259847391</v>
       </c>
       <c r="H13">
-        <v>1.255005253737389</v>
+        <v>0.0532210259847391</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -798,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1883110177716323</v>
+        <v>1.419652253737389</v>
       </c>
       <c r="C14">
-        <v>0.2163100177716323</v>
+        <v>1.132285253737389</v>
       </c>
       <c r="D14">
-        <v>0.3089580177716323</v>
+        <v>1.160284253737389</v>
       </c>
       <c r="E14">
-        <v>0.5219340177716323</v>
+        <v>1.252932253737389</v>
       </c>
       <c r="F14">
-        <v>0.02127401777163229</v>
+        <v>1.465908253737389</v>
       </c>
       <c r="G14">
-        <v>0.3110310177716323</v>
+        <v>0.9652482537373891</v>
       </c>
       <c r="H14">
-        <v>0.0531390177716323</v>
+        <v>1.255005253737389</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -824,25 +827,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2202779152847414</v>
+        <v>0.1883110177716323</v>
       </c>
       <c r="C15">
-        <v>0.3129259152847414</v>
+        <v>0.2163100177716323</v>
       </c>
       <c r="D15">
-        <v>0.5259019152847414</v>
+        <v>0.3089580177716323</v>
       </c>
       <c r="E15">
-        <v>0.0252419152847414</v>
+        <v>0.5219340177716323</v>
       </c>
       <c r="F15">
-        <v>0.3149989152847414</v>
+        <v>0.02127401777163229</v>
       </c>
       <c r="G15">
-        <v>0.05710691528474141</v>
+        <v>0.3110310177716323</v>
       </c>
       <c r="H15">
-        <v>0.4394879152847414</v>
+        <v>0.0531390177716323</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -850,117 +853,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4485660054549828</v>
+        <v>0.2202779152847414</v>
       </c>
       <c r="C16">
-        <v>0.6615420054549828</v>
+        <v>0.3129259152847414</v>
       </c>
       <c r="D16">
-        <v>0.1608820054549828</v>
+        <v>0.5259019152847414</v>
       </c>
       <c r="E16">
-        <v>0.4506390054549828</v>
+        <v>0.0252419152847414</v>
       </c>
       <c r="F16">
-        <v>0.1927470054549828</v>
+        <v>0.3149989152847414</v>
       </c>
       <c r="G16">
-        <v>0.5751280054549828</v>
+        <v>0.05710691528474141</v>
       </c>
       <c r="H16">
-        <v>0.1638509114549828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.4394879152847414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.420735823599318</v>
+        <v>0.4485660054549828</v>
       </c>
       <c r="C17">
-        <v>-0.07992417640068192</v>
+        <v>0.6615420054549828</v>
       </c>
       <c r="D17">
-        <v>0.2098328235993181</v>
+        <v>0.1608820054549828</v>
       </c>
       <c r="E17">
-        <v>-0.04805917640068191</v>
+        <v>0.4506390054549828</v>
       </c>
       <c r="F17">
-        <v>0.3343218235993181</v>
+        <v>0.1927470054549828</v>
       </c>
       <c r="G17">
-        <v>-0.0769552704006819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.5751280054549828</v>
+      </c>
+      <c r="H17">
+        <v>0.1638509114549828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.1252553916527783</v>
+        <v>0.420735823599318</v>
       </c>
       <c r="C18">
-        <v>0.1645016083472217</v>
+        <v>-0.07992417640068192</v>
       </c>
       <c r="D18">
-        <v>-0.09339039165277828</v>
+        <v>0.2098328235993181</v>
       </c>
       <c r="E18">
-        <v>0.2889906083472217</v>
+        <v>-0.04805917640068191</v>
       </c>
       <c r="F18">
-        <v>-0.1222864856527783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.3343218235993181</v>
+      </c>
+      <c r="G18">
+        <v>-0.0769552704006819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.09764018641116785</v>
+        <v>-0.1252553916527783</v>
       </c>
       <c r="C19">
-        <v>-0.1602518135888321</v>
+        <v>0.1645016083472217</v>
       </c>
       <c r="D19">
-        <v>0.2221291864111679</v>
+        <v>-0.09339039165277828</v>
       </c>
       <c r="E19">
-        <v>-0.1891479075888321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.2889906083472217</v>
+      </c>
+      <c r="F19">
+        <v>-0.1222864856527783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.1898380159455487</v>
+        <v>0.09764018641116785</v>
       </c>
       <c r="C20">
-        <v>0.1925429840544512</v>
+        <v>-0.1602518135888321</v>
       </c>
       <c r="D20">
-        <v>-0.2187341099455487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.2221291864111679</v>
+      </c>
+      <c r="E20">
+        <v>-0.1891479075888321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1743923273248104</v>
+        <v>-0.1898380159455487</v>
       </c>
       <c r="C21">
-        <v>-0.2368847666751896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.1925429840544512</v>
+      </c>
+      <c r="D21">
+        <v>-0.2187341099455487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>0.1743923273248104</v>
+      </c>
+      <c r="C22">
+        <v>-0.2368847666751896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>-0.254916590923889</v>
       </c>
     </row>
